--- a/data/pca/factorExposure/factorExposure_2017-01-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-01-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0009420258322313427</v>
+        <v>0.0106558973689797</v>
       </c>
       <c r="C2">
-        <v>0.01930558100595745</v>
+        <v>-0.03995719610186631</v>
       </c>
       <c r="D2">
-        <v>-0.03472162997949</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.031653226845444</v>
+      </c>
+      <c r="E2">
+        <v>-0.05205540201373583</v>
+      </c>
+      <c r="F2">
+        <v>0.005584119976572641</v>
+      </c>
+      <c r="G2">
+        <v>-0.1132446107809034</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04228942745694354</v>
+        <v>0.03824875802123014</v>
       </c>
       <c r="C3">
-        <v>-0.01998804934181348</v>
+        <v>-0.1004907428068461</v>
       </c>
       <c r="D3">
-        <v>-0.117812756517788</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01783380204272809</v>
+      </c>
+      <c r="E3">
+        <v>-0.09679077182566632</v>
+      </c>
+      <c r="F3">
+        <v>0.02016464464377096</v>
+      </c>
+      <c r="G3">
+        <v>-0.1258319908635058</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.04024073775446126</v>
+        <v>0.05411667404037787</v>
       </c>
       <c r="C4">
-        <v>0.003144227480611602</v>
+        <v>-0.06666901599614605</v>
       </c>
       <c r="D4">
-        <v>-0.0662068303835944</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02583192168995358</v>
+      </c>
+      <c r="E4">
+        <v>-0.04331012857493019</v>
+      </c>
+      <c r="F4">
+        <v>0.003004916911946728</v>
+      </c>
+      <c r="G4">
+        <v>-0.09968194663346353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01375763832322764</v>
+        <v>0.03392617665721644</v>
       </c>
       <c r="C6">
-        <v>0.002771322956280038</v>
+        <v>-0.05106731449742642</v>
       </c>
       <c r="D6">
-        <v>-0.05563101251663281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.0185196198513303</v>
+      </c>
+      <c r="E6">
+        <v>-0.04822147148703468</v>
+      </c>
+      <c r="F6">
+        <v>0.003972969191570504</v>
+      </c>
+      <c r="G6">
+        <v>-0.08538980766192561</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.004285976621718148</v>
+        <v>0.01973455159152263</v>
       </c>
       <c r="C7">
-        <v>0.005104462208804737</v>
+        <v>-0.03805596165510848</v>
       </c>
       <c r="D7">
-        <v>-0.03593559848284646</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01507677446774925</v>
+      </c>
+      <c r="E7">
+        <v>-0.01968370592759614</v>
+      </c>
+      <c r="F7">
+        <v>-0.003209285651504436</v>
+      </c>
+      <c r="G7">
+        <v>-0.126264416675375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.001962688630029919</v>
+        <v>0.003490185920092747</v>
       </c>
       <c r="C8">
-        <v>0.001338920472895565</v>
+        <v>-0.02233917938957776</v>
       </c>
       <c r="D8">
-        <v>0.001268416111055503</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.004092855661598627</v>
+      </c>
+      <c r="E8">
+        <v>-0.0328131328220777</v>
+      </c>
+      <c r="F8">
+        <v>0.001706672547787871</v>
+      </c>
+      <c r="G8">
+        <v>-0.06845808227754686</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01427110094969013</v>
+        <v>0.03241856832973865</v>
       </c>
       <c r="C9">
-        <v>0.004486698278052079</v>
+        <v>-0.04748107765722432</v>
       </c>
       <c r="D9">
-        <v>-0.03977509539609229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.0169008668744656</v>
+      </c>
+      <c r="E9">
+        <v>-0.02945727246992436</v>
+      </c>
+      <c r="F9">
+        <v>-0.0006514122904690487</v>
+      </c>
+      <c r="G9">
+        <v>-0.1028968988780688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1296037749632747</v>
+        <v>0.1001393247603615</v>
       </c>
       <c r="C10">
-        <v>-0.004321135790502715</v>
+        <v>0.1853040349147133</v>
       </c>
       <c r="D10">
-        <v>0.1716959918325996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01533175683498087</v>
+      </c>
+      <c r="E10">
+        <v>-0.02116922336875013</v>
+      </c>
+      <c r="F10">
+        <v>0.02175116212749599</v>
+      </c>
+      <c r="G10">
+        <v>-0.05299815191189117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.01839701554854161</v>
+        <v>0.03509073287162542</v>
       </c>
       <c r="C11">
-        <v>-0.01208315460260395</v>
+        <v>-0.05250008817278106</v>
       </c>
       <c r="D11">
-        <v>-0.05136617636088391</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002727214840399237</v>
+      </c>
+      <c r="E11">
+        <v>-0.0222018130898745</v>
+      </c>
+      <c r="F11">
+        <v>-0.01480075610623823</v>
+      </c>
+      <c r="G11">
+        <v>-0.08496148082832472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.01945883789766522</v>
+        <v>0.03740326335157679</v>
       </c>
       <c r="C12">
-        <v>-0.006191300739361931</v>
+        <v>-0.0473956150354449</v>
       </c>
       <c r="D12">
-        <v>-0.04578593170133984</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006669181851258569</v>
+      </c>
+      <c r="E12">
+        <v>-0.01134682332759934</v>
+      </c>
+      <c r="F12">
+        <v>-0.002154756748974931</v>
+      </c>
+      <c r="G12">
+        <v>-0.08045115801286339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.003242706364009986</v>
+        <v>0.01190924902351383</v>
       </c>
       <c r="C13">
-        <v>0.01588452618373675</v>
+        <v>-0.03865280895970515</v>
       </c>
       <c r="D13">
-        <v>-0.03443022067205116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02844632832959147</v>
+      </c>
+      <c r="E13">
+        <v>-0.05324428700633058</v>
+      </c>
+      <c r="F13">
+        <v>0.01427210611624657</v>
+      </c>
+      <c r="G13">
+        <v>-0.1432044576148333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.0007691279981619092</v>
+        <v>0.009008295350417582</v>
       </c>
       <c r="C14">
-        <v>0.004215601183620549</v>
+        <v>-0.02758651815358535</v>
       </c>
       <c r="D14">
-        <v>-0.02156296083639191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01115080841032315</v>
+      </c>
+      <c r="E14">
+        <v>-0.01536167232607388</v>
+      </c>
+      <c r="F14">
+        <v>0.006745264736360386</v>
+      </c>
+      <c r="G14">
+        <v>-0.1156823235354552</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.01718866285255263</v>
+        <v>0.03357306234925857</v>
       </c>
       <c r="C16">
-        <v>-0.009372205964743743</v>
+        <v>-0.04504693187884831</v>
       </c>
       <c r="D16">
-        <v>-0.03738533772209918</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002274047168394902</v>
+      </c>
+      <c r="E16">
+        <v>-0.01823949324576933</v>
+      </c>
+      <c r="F16">
+        <v>0.004342012725070453</v>
+      </c>
+      <c r="G16">
+        <v>-0.08906651013643153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01338005098449516</v>
+        <v>0.01913103985583034</v>
       </c>
       <c r="C19">
-        <v>0.001852617072892671</v>
+        <v>-0.05021884153775003</v>
       </c>
       <c r="D19">
-        <v>-0.05085170479660796</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.02134345783699486</v>
+      </c>
+      <c r="E19">
+        <v>-0.09045699967964964</v>
+      </c>
+      <c r="F19">
+        <v>0.007060755450794288</v>
+      </c>
+      <c r="G19">
+        <v>-0.1398630738832816</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.002003550120846114</v>
+        <v>0.01459332572303867</v>
       </c>
       <c r="C20">
-        <v>0.004772792546727949</v>
+        <v>-0.04061990419469107</v>
       </c>
       <c r="D20">
-        <v>-0.03502307662606268</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.015278725780948</v>
+      </c>
+      <c r="E20">
+        <v>-0.04216486848571471</v>
+      </c>
+      <c r="F20">
+        <v>0.02433056812071811</v>
+      </c>
+      <c r="G20">
+        <v>-0.1126379304452114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.003255005744898824</v>
+        <v>0.008472887734113678</v>
       </c>
       <c r="C21">
-        <v>0.009819672829673101</v>
+        <v>-0.03818797375180865</v>
       </c>
       <c r="D21">
-        <v>-0.02804583208782242</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02067585446032848</v>
+      </c>
+      <c r="E21">
+        <v>-0.05407107472948179</v>
+      </c>
+      <c r="F21">
+        <v>0.01287657264215014</v>
+      </c>
+      <c r="G21">
+        <v>-0.144726835025575</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001147033531356131</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.00640074232312795</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.002318731872430768</v>
+      </c>
+      <c r="E22">
+        <v>-0.01827509376022431</v>
+      </c>
+      <c r="F22">
+        <v>-0.004965251709061662</v>
+      </c>
+      <c r="G22">
+        <v>-0.003535303745724064</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001139480568496176</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.006375007489665754</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.002310193851767729</v>
+      </c>
+      <c r="E23">
+        <v>-0.0181966959471024</v>
+      </c>
+      <c r="F23">
+        <v>-0.004680715414846358</v>
+      </c>
+      <c r="G23">
+        <v>-0.00329111527909413</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.01117225943154096</v>
+        <v>0.02907385305986596</v>
       </c>
       <c r="C24">
-        <v>-0.004403439981527085</v>
+        <v>-0.04906590885606298</v>
       </c>
       <c r="D24">
-        <v>-0.04366876179645011</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007411415002809918</v>
+      </c>
+      <c r="E24">
+        <v>-0.01730954134546182</v>
+      </c>
+      <c r="F24">
+        <v>-0.006202241334765061</v>
+      </c>
+      <c r="G24">
+        <v>-0.08911268593183815</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.02733676594315942</v>
+        <v>0.04222511269664449</v>
       </c>
       <c r="C25">
-        <v>-0.004674251458316098</v>
+        <v>-0.05705518870262846</v>
       </c>
       <c r="D25">
-        <v>-0.05602353159098435</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01147653508112887</v>
+      </c>
+      <c r="E25">
+        <v>-0.008665878867095436</v>
+      </c>
+      <c r="F25">
+        <v>-0.004920631997412216</v>
+      </c>
+      <c r="G25">
+        <v>-0.0950083660749509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.001492675380439493</v>
+        <v>0.01414042033910429</v>
       </c>
       <c r="C26">
-        <v>0.02156487230877543</v>
+        <v>-0.01168249335216311</v>
       </c>
       <c r="D26">
-        <v>-0.006677499442717861</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02445818425351078</v>
+      </c>
+      <c r="E26">
+        <v>-0.01005276322730017</v>
+      </c>
+      <c r="F26">
+        <v>0.006210337518859734</v>
+      </c>
+      <c r="G26">
+        <v>-0.08560429382597201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1633038980100526</v>
+        <v>0.1307889277642071</v>
       </c>
       <c r="C28">
-        <v>0.005973190847959203</v>
+        <v>0.2416898095562737</v>
       </c>
       <c r="D28">
-        <v>0.195039654201644</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006621356696768975</v>
+      </c>
+      <c r="E28">
+        <v>-0.002626599480426019</v>
+      </c>
+      <c r="F28">
+        <v>0.02089342141904883</v>
+      </c>
+      <c r="G28">
+        <v>-0.04666075849343788</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.005216525401089323</v>
+        <v>0.008251702777933637</v>
       </c>
       <c r="C29">
-        <v>0.003011094902954597</v>
+        <v>-0.02334125926706312</v>
       </c>
       <c r="D29">
-        <v>-0.01850860979713741</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01003537677647757</v>
+      </c>
+      <c r="E29">
+        <v>-0.008347054246990088</v>
+      </c>
+      <c r="F29">
+        <v>0.0117104706884758</v>
+      </c>
+      <c r="G29">
+        <v>-0.1048644671944222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02055609962598006</v>
+        <v>0.03913746822085119</v>
       </c>
       <c r="C30">
-        <v>0.005140535790572697</v>
+        <v>-0.06710798809509631</v>
       </c>
       <c r="D30">
-        <v>-0.09012739234367756</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.03044575755157164</v>
+      </c>
+      <c r="E30">
+        <v>-0.07160376528133225</v>
+      </c>
+      <c r="F30">
+        <v>-0.02001187852951387</v>
+      </c>
+      <c r="G30">
+        <v>-0.1272968836566899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.02859741983897198</v>
+        <v>0.05274205316582001</v>
       </c>
       <c r="C31">
-        <v>-0.004095799024498667</v>
+        <v>-0.03940851209391825</v>
       </c>
       <c r="D31">
-        <v>-0.01680147544479388</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.004026652206498327</v>
+      </c>
+      <c r="E31">
+        <v>0.001671311597943778</v>
+      </c>
+      <c r="F31">
+        <v>0.03502797714099251</v>
+      </c>
+      <c r="G31">
+        <v>-0.09842181422396153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.001530352707684982</v>
+        <v>0.001801732139515404</v>
       </c>
       <c r="C32">
-        <v>-0.01225931354731893</v>
+        <v>-0.0206614891364778</v>
       </c>
       <c r="D32">
-        <v>-0.02933010604350836</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.001730169344047209</v>
+      </c>
+      <c r="E32">
+        <v>-0.0472395777767783</v>
+      </c>
+      <c r="F32">
+        <v>-0.02965960028870644</v>
+      </c>
+      <c r="G32">
+        <v>-0.07663399255445592</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01258301964159576</v>
+        <v>0.02656685005236738</v>
       </c>
       <c r="C33">
-        <v>0.0003370670090578261</v>
+        <v>-0.05032156745588879</v>
       </c>
       <c r="D33">
-        <v>-0.05152866771860511</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01740914673569364</v>
+      </c>
+      <c r="E33">
+        <v>-0.05762984104297098</v>
+      </c>
+      <c r="F33">
+        <v>-0.005658520147855503</v>
+      </c>
+      <c r="G33">
+        <v>-0.1591707449138888</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.03099316039034834</v>
+        <v>0.04135410630237553</v>
       </c>
       <c r="C34">
-        <v>-0.02206680273011449</v>
+        <v>-0.05969923364582726</v>
       </c>
       <c r="D34">
-        <v>-0.05532308478231482</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004345007741739294</v>
+      </c>
+      <c r="E34">
+        <v>-0.01400349924333921</v>
+      </c>
+      <c r="F34">
+        <v>-0.01878284195614844</v>
+      </c>
+      <c r="G34">
+        <v>-0.08772473427674428</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.007527430282995908</v>
+        <v>0.01537710621131726</v>
       </c>
       <c r="C36">
-        <v>0.00970381033492851</v>
+        <v>-0.009666024518502256</v>
       </c>
       <c r="D36">
-        <v>0.001006579641565906</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01325693624501206</v>
+      </c>
+      <c r="E36">
+        <v>-0.01389430134251562</v>
+      </c>
+      <c r="F36">
+        <v>0.008214246885833384</v>
+      </c>
+      <c r="G36">
+        <v>-0.09534311276195544</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02193456374701358</v>
+        <v>0.03137609980087311</v>
       </c>
       <c r="C38">
-        <v>-0.01569691847784291</v>
+        <v>-0.02852201496998232</v>
       </c>
       <c r="D38">
-        <v>-0.01833564700949422</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007404618316245199</v>
+      </c>
+      <c r="E38">
+        <v>-0.009095390272440811</v>
+      </c>
+      <c r="F38">
+        <v>0.01590464257827449</v>
+      </c>
+      <c r="G38">
+        <v>-0.08796749571055265</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.007695221112865632</v>
+        <v>0.03525960614182819</v>
       </c>
       <c r="C39">
-        <v>-0.007526143854076052</v>
+        <v>-0.07822803837644247</v>
       </c>
       <c r="D39">
-        <v>-0.08799277305796227</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01248942386779088</v>
+      </c>
+      <c r="E39">
+        <v>-0.03315124942275729</v>
+      </c>
+      <c r="F39">
+        <v>-0.01455151613303341</v>
+      </c>
+      <c r="G39">
+        <v>-0.09629009025613651</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01193981488038535</v>
+        <v>0.0132794549214005</v>
       </c>
       <c r="C40">
-        <v>0.004301965666610617</v>
+        <v>-0.03726910678691468</v>
       </c>
       <c r="D40">
-        <v>-0.0254501691043326</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01554189234944472</v>
+      </c>
+      <c r="E40">
+        <v>-0.03571700274413563</v>
+      </c>
+      <c r="F40">
+        <v>0.01639997968273954</v>
+      </c>
+      <c r="G40">
+        <v>-0.1216316883517398</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.0112854717940206</v>
+        <v>0.01972585063263919</v>
       </c>
       <c r="C41">
-        <v>0.002309612628404041</v>
+        <v>-0.002863713063607145</v>
       </c>
       <c r="D41">
-        <v>0.006254497761165787</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.005241385613235649</v>
+      </c>
+      <c r="E41">
+        <v>-0.01107172718951442</v>
+      </c>
+      <c r="F41">
+        <v>0.0153601545602565</v>
+      </c>
+      <c r="G41">
+        <v>-0.08962424345127468</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.005643294221800784</v>
+        <v>0.004947380087401721</v>
       </c>
       <c r="C42">
-        <v>0.07783381047437629</v>
+        <v>-0.02812704131788487</v>
       </c>
       <c r="D42">
-        <v>-0.07165326610394242</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08450190946240485</v>
+      </c>
+      <c r="E42">
+        <v>0.008722465529741007</v>
+      </c>
+      <c r="F42">
+        <v>0.03606970733268364</v>
+      </c>
+      <c r="G42">
+        <v>0.02054394583876315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.02360176693520209</v>
+        <v>0.03488524168924438</v>
       </c>
       <c r="C43">
-        <v>-0.00208129546751437</v>
+        <v>-0.01797869591003431</v>
       </c>
       <c r="D43">
-        <v>-0.005231130561590823</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.006545416853576192</v>
+      </c>
+      <c r="E43">
+        <v>-0.02672193547271327</v>
+      </c>
+      <c r="F43">
+        <v>0.0116824488983156</v>
+      </c>
+      <c r="G43">
+        <v>-0.1186479888558675</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.004483421829290808</v>
+        <v>0.01302131907196704</v>
       </c>
       <c r="C44">
-        <v>-0.006659121534717434</v>
+        <v>-0.05659953823223385</v>
       </c>
       <c r="D44">
-        <v>-0.05306943338627714</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.007772879282405585</v>
+      </c>
+      <c r="E44">
+        <v>-0.03193617492096988</v>
+      </c>
+      <c r="F44">
+        <v>0.01886690588627849</v>
+      </c>
+      <c r="G44">
+        <v>-0.1171889086480545</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.002235147647122282</v>
+        <v>0.00857026470021127</v>
       </c>
       <c r="C46">
-        <v>0.01097845753475646</v>
+        <v>-0.01580472824599886</v>
       </c>
       <c r="D46">
-        <v>-3.754344237688856e-05</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01297038056381502</v>
+      </c>
+      <c r="E46">
+        <v>-0.001213741663858916</v>
+      </c>
+      <c r="F46">
+        <v>0.01434715617657896</v>
+      </c>
+      <c r="G46">
+        <v>-0.1084984125030251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.04605359968253105</v>
+        <v>0.07908491737254844</v>
       </c>
       <c r="C47">
-        <v>-0.02193895339214556</v>
+        <v>-0.0721164664407335</v>
       </c>
       <c r="D47">
-        <v>-0.05834111152990888</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.004929366722254276</v>
+      </c>
+      <c r="E47">
+        <v>0.009720820460261473</v>
+      </c>
+      <c r="F47">
+        <v>0.04602831608510922</v>
+      </c>
+      <c r="G47">
+        <v>-0.08651685713696955</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.006654192246424054</v>
+        <v>0.01871887526925004</v>
       </c>
       <c r="C48">
-        <v>-0.0004399020817204129</v>
+        <v>-0.01312423763361809</v>
       </c>
       <c r="D48">
-        <v>-0.0003765477626338902</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002785506365099121</v>
+      </c>
+      <c r="E48">
+        <v>-0.007721495327937683</v>
+      </c>
+      <c r="F48">
+        <v>0.01943259674298561</v>
+      </c>
+      <c r="G48">
+        <v>-0.1038213210118738</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.04980263467901876</v>
+        <v>0.07363484637869155</v>
       </c>
       <c r="C50">
-        <v>-0.01997423451948408</v>
+        <v>-0.07336655424328944</v>
       </c>
       <c r="D50">
-        <v>-0.05018086686474313</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.001986884186804775</v>
+      </c>
+      <c r="E50">
+        <v>0.01001326483225577</v>
+      </c>
+      <c r="F50">
+        <v>0.04797292268031655</v>
+      </c>
+      <c r="G50">
+        <v>-0.0970254298646732</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.004538449909175067</v>
+        <v>0.01176077713800586</v>
       </c>
       <c r="C51">
-        <v>0.0005802653831529956</v>
+        <v>-0.03659680645540304</v>
       </c>
       <c r="D51">
-        <v>-0.03123321329814445</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01163986839896231</v>
+      </c>
+      <c r="E51">
+        <v>-0.03424382504503809</v>
+      </c>
+      <c r="F51">
+        <v>-0.01016277487328821</v>
+      </c>
+      <c r="G51">
+        <v>-0.1204000476895251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.06733025253038948</v>
+        <v>0.08137393309310467</v>
       </c>
       <c r="C53">
-        <v>-0.02872886595257197</v>
+        <v>-0.08401085359271977</v>
       </c>
       <c r="D53">
-        <v>-0.080436752335869</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.004125980919006865</v>
+      </c>
+      <c r="E53">
+        <v>0.03305055359949394</v>
+      </c>
+      <c r="F53">
+        <v>0.05217526035301383</v>
+      </c>
+      <c r="G53">
+        <v>-0.08899177064550658</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.02113980746995785</v>
+        <v>0.03236256609288667</v>
       </c>
       <c r="C54">
-        <v>-0.005749281644504622</v>
+        <v>-0.01729150545820879</v>
       </c>
       <c r="D54">
-        <v>0.005827398825658948</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.000534493848158023</v>
+      </c>
+      <c r="E54">
+        <v>-0.02047364389157727</v>
+      </c>
+      <c r="F54">
+        <v>0.01092180778997651</v>
+      </c>
+      <c r="G54">
+        <v>-0.1093675045698943</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.04824974744184518</v>
+        <v>0.07362313148691368</v>
       </c>
       <c r="C55">
-        <v>-0.0228094045652128</v>
+        <v>-0.06779999911990453</v>
       </c>
       <c r="D55">
-        <v>-0.06271459809011677</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005554299498284138</v>
+      </c>
+      <c r="E55">
+        <v>0.03030760623601239</v>
+      </c>
+      <c r="F55">
+        <v>0.04974546364610545</v>
+      </c>
+      <c r="G55">
+        <v>-0.06867781949311302</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1036239510292774</v>
+        <v>0.135277827854193</v>
       </c>
       <c r="C56">
-        <v>-0.04757234136623627</v>
+        <v>-0.1074575065181941</v>
       </c>
       <c r="D56">
-        <v>-0.1139386533919395</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01319467195065969</v>
+      </c>
+      <c r="E56">
+        <v>0.04026267459937391</v>
+      </c>
+      <c r="F56">
+        <v>0.06284062305035161</v>
+      </c>
+      <c r="G56">
+        <v>-0.04869090946156841</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.01090209634798102</v>
+        <v>0.004160738772659807</v>
       </c>
       <c r="C57">
-        <v>0.01741347896933572</v>
+        <v>-0.004714543080164343</v>
       </c>
       <c r="D57">
-        <v>-0.01683619864438861</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02278068100039859</v>
+      </c>
+      <c r="E57">
+        <v>-0.02474312281985581</v>
+      </c>
+      <c r="F57">
+        <v>-0.0004728294296004364</v>
+      </c>
+      <c r="G57">
+        <v>-0.01591620203762158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.03224498217500792</v>
+        <v>0.04197634841888954</v>
       </c>
       <c r="C58">
-        <v>-0.02648775314205438</v>
+        <v>-0.0410912518823096</v>
       </c>
       <c r="D58">
-        <v>-0.1064981565908148</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03113137743674598</v>
+      </c>
+      <c r="E58">
+        <v>-0.7968425717087619</v>
+      </c>
+      <c r="F58">
+        <v>0.5064653381837733</v>
+      </c>
+      <c r="G58">
+        <v>0.2580733106428035</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.2029083387675689</v>
+        <v>0.1605226808041171</v>
       </c>
       <c r="C59">
-        <v>-0.008902517305313048</v>
+        <v>0.2062533626035618</v>
       </c>
       <c r="D59">
-        <v>0.1867773390893433</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01073883397005692</v>
+      </c>
+      <c r="E59">
+        <v>-0.02455741786649554</v>
+      </c>
+      <c r="F59">
+        <v>0.004724668829236425</v>
+      </c>
+      <c r="G59">
+        <v>-0.03659070957154477</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2996883440193763</v>
+        <v>0.2873560730391028</v>
       </c>
       <c r="C60">
-        <v>-0.07214417468166628</v>
+        <v>-0.1161395001235264</v>
       </c>
       <c r="D60">
-        <v>-0.1764616894129775</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01517940702601316</v>
+      </c>
+      <c r="E60">
+        <v>-0.09161511470227097</v>
+      </c>
+      <c r="F60">
+        <v>-0.315552208120316</v>
+      </c>
+      <c r="G60">
+        <v>0.1764506780913437</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.01422232498099845</v>
+        <v>0.03889860649841515</v>
       </c>
       <c r="C61">
-        <v>-0.01167279650038039</v>
+        <v>-0.06525448471880765</v>
       </c>
       <c r="D61">
-        <v>-0.06893299960943579</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.006473840623761141</v>
+      </c>
+      <c r="E61">
+        <v>-0.03154150214715245</v>
+      </c>
+      <c r="F61">
+        <v>-0.009552507973917754</v>
+      </c>
+      <c r="G61">
+        <v>-0.09572107380341306</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.005802906360665382</v>
+        <v>0.01429407966748933</v>
       </c>
       <c r="C63">
-        <v>0.001138961296926969</v>
+        <v>-0.03012857955937087</v>
       </c>
       <c r="D63">
-        <v>-0.0306715763713997</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008918321079235157</v>
+      </c>
+      <c r="E63">
+        <v>-0.006701905931099291</v>
+      </c>
+      <c r="F63">
+        <v>0.01462723392653879</v>
+      </c>
+      <c r="G63">
+        <v>-0.09308106714276941</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.03690337453431811</v>
+        <v>0.04972290278376515</v>
       </c>
       <c r="C64">
-        <v>-0.008713809314928314</v>
+        <v>-0.04647678737640328</v>
       </c>
       <c r="D64">
-        <v>-0.03851646722680942</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.005974907275951177</v>
+      </c>
+      <c r="E64">
+        <v>-0.00615971276449234</v>
+      </c>
+      <c r="F64">
+        <v>-0.007468781244020298</v>
+      </c>
+      <c r="G64">
+        <v>-0.09829139061290738</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.06451206586500788</v>
+        <v>0.0728888079966615</v>
       </c>
       <c r="C65">
-        <v>-0.01244802431961499</v>
+        <v>-0.05992022498539457</v>
       </c>
       <c r="D65">
-        <v>-0.09208660272569864</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01783265137046661</v>
+      </c>
+      <c r="E65">
+        <v>-0.05088753510128963</v>
+      </c>
+      <c r="F65">
+        <v>-0.0112605743908959</v>
+      </c>
+      <c r="G65">
+        <v>-0.04193324013362289</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.01772605925186098</v>
+        <v>0.04749716537157851</v>
       </c>
       <c r="C66">
-        <v>-0.01798505511462762</v>
+        <v>-0.1061942839237119</v>
       </c>
       <c r="D66">
-        <v>-0.1340447796465709</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01313883045425267</v>
+      </c>
+      <c r="E66">
+        <v>-0.0534029389462251</v>
+      </c>
+      <c r="F66">
+        <v>-0.02433009874789285</v>
+      </c>
+      <c r="G66">
+        <v>-0.1020537329006007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.04690911493807024</v>
+        <v>0.05494200223482561</v>
       </c>
       <c r="C67">
-        <v>-0.01963654730622778</v>
+        <v>-0.03441536785931825</v>
       </c>
       <c r="D67">
-        <v>-0.03232015943579059</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.006100401331095662</v>
+      </c>
+      <c r="E67">
+        <v>0.002517107838132078</v>
+      </c>
+      <c r="F67">
+        <v>0.01124758998112274</v>
+      </c>
+      <c r="G67">
+        <v>-0.07364076119856858</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1943051141213092</v>
+        <v>0.1597819360258986</v>
       </c>
       <c r="C68">
-        <v>0.01997808011982097</v>
+        <v>0.2695883158811787</v>
       </c>
       <c r="D68">
-        <v>0.2284646087143104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.005190003967834734</v>
+      </c>
+      <c r="E68">
+        <v>0.001098612016292705</v>
+      </c>
+      <c r="F68">
+        <v>0.04439501584345021</v>
+      </c>
+      <c r="G68">
+        <v>-0.02183545202309128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.05256635178658259</v>
+        <v>0.08177230541120921</v>
       </c>
       <c r="C69">
-        <v>-0.02669748810863187</v>
+        <v>-0.07462608523518337</v>
       </c>
       <c r="D69">
-        <v>-0.05604222182156766</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008972337403579228</v>
+      </c>
+      <c r="E69">
+        <v>0.0225928710654307</v>
+      </c>
+      <c r="F69">
+        <v>0.02662948319458914</v>
+      </c>
+      <c r="G69">
+        <v>-0.09831921399005776</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1777375635668901</v>
+        <v>0.1461727486578246</v>
       </c>
       <c r="C71">
-        <v>0.005249838957356913</v>
+        <v>0.2289111748631136</v>
       </c>
       <c r="D71">
-        <v>0.1884193683214761</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002782916171008768</v>
+      </c>
+      <c r="E71">
+        <v>-0.03071434866073312</v>
+      </c>
+      <c r="F71">
+        <v>0.02751138280543774</v>
+      </c>
+      <c r="G71">
+        <v>-0.06569964352565415</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.05891166754679737</v>
+        <v>0.08615624621140791</v>
       </c>
       <c r="C72">
-        <v>-0.03293193572344467</v>
+        <v>-0.06943973113619846</v>
       </c>
       <c r="D72">
-        <v>-0.07729133942402379</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.007783640458581729</v>
+      </c>
+      <c r="E72">
+        <v>0.001626410054346408</v>
+      </c>
+      <c r="F72">
+        <v>-0.03288422047432617</v>
+      </c>
+      <c r="G72">
+        <v>-0.08290872912529522</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4055190504481603</v>
+        <v>0.3705188204073763</v>
       </c>
       <c r="C73">
-        <v>-0.1009143815455973</v>
+        <v>-0.123930855792097</v>
       </c>
       <c r="D73">
-        <v>-0.2648657605510213</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02795271638905344</v>
+      </c>
+      <c r="E73">
+        <v>-0.2268682338279287</v>
+      </c>
+      <c r="F73">
+        <v>-0.5410653731619197</v>
+      </c>
+      <c r="G73">
+        <v>0.322285897201183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.08425605750464191</v>
+        <v>0.1046028504906014</v>
       </c>
       <c r="C74">
-        <v>-0.04507384193400126</v>
+        <v>-0.1095944266349007</v>
       </c>
       <c r="D74">
-        <v>-0.1259490036319643</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009552754716481116</v>
+      </c>
+      <c r="E74">
+        <v>0.01427771148976641</v>
+      </c>
+      <c r="F74">
+        <v>0.05685495732902302</v>
+      </c>
+      <c r="G74">
+        <v>-0.07264193535768305</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1944688415653234</v>
+        <v>0.2461136047070157</v>
       </c>
       <c r="C75">
-        <v>-0.08428858699609554</v>
+        <v>-0.1528075219969349</v>
       </c>
       <c r="D75">
-        <v>-0.1807550483503537</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03257196895866421</v>
+      </c>
+      <c r="E75">
+        <v>0.1017650108864432</v>
+      </c>
+      <c r="F75">
+        <v>0.1409644656829331</v>
+      </c>
+      <c r="G75">
+        <v>0.002102621111565459</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.09638605979906462</v>
+        <v>0.1148284657758485</v>
       </c>
       <c r="C76">
-        <v>-0.05459238375927832</v>
+        <v>-0.1106013415281373</v>
       </c>
       <c r="D76">
-        <v>-0.1272294612387913</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01829997175233478</v>
+      </c>
+      <c r="E76">
+        <v>0.04345860308342034</v>
+      </c>
+      <c r="F76">
+        <v>0.08520435456185224</v>
+      </c>
+      <c r="G76">
+        <v>-0.05959333221313871</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.03771066424729493</v>
+        <v>0.07033160851745121</v>
       </c>
       <c r="C77">
-        <v>-0.01122334538742681</v>
+        <v>-0.05723439748534076</v>
       </c>
       <c r="D77">
-        <v>-0.0718122161323707</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01097421901809978</v>
+      </c>
+      <c r="E77">
+        <v>-0.055500962234771</v>
+      </c>
+      <c r="F77">
+        <v>0.00293334717319919</v>
+      </c>
+      <c r="G77">
+        <v>-0.07329739797498599</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.02672880687031283</v>
+        <v>0.04096072787887238</v>
       </c>
       <c r="C78">
-        <v>-0.01147125784436512</v>
+        <v>-0.05253898162266962</v>
       </c>
       <c r="D78">
-        <v>-0.05995773372020063</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.007666468220536157</v>
+      </c>
+      <c r="E78">
+        <v>-0.04417226442886217</v>
+      </c>
+      <c r="F78">
+        <v>-0.02899475957395231</v>
+      </c>
+      <c r="G78">
+        <v>-0.1032784797408714</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.001913758963935621</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.000829260755640212</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0007658054246183739</v>
+      </c>
+      <c r="E79">
+        <v>-0.007497398621918669</v>
+      </c>
+      <c r="F79">
+        <v>-5.006175753359409e-05</v>
+      </c>
+      <c r="G79">
+        <v>-0.006934728902689291</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.033448165693188</v>
+        <v>0.04104876163624859</v>
       </c>
       <c r="C80">
-        <v>-0.00670627990339841</v>
+        <v>-0.05369782939541121</v>
       </c>
       <c r="D80">
-        <v>-0.07034394906583417</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01419955516788693</v>
+      </c>
+      <c r="E80">
+        <v>-0.03298130463574206</v>
+      </c>
+      <c r="F80">
+        <v>0.0009480257642619006</v>
+      </c>
+      <c r="G80">
+        <v>-0.05443398282320724</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1049782261723365</v>
+        <v>0.1381919112659202</v>
       </c>
       <c r="C81">
-        <v>-0.04453075900869768</v>
+        <v>-0.09622565011027955</v>
       </c>
       <c r="D81">
-        <v>-0.09289577253388145</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01589484842572377</v>
+      </c>
+      <c r="E81">
+        <v>0.06154914386947598</v>
+      </c>
+      <c r="F81">
+        <v>0.1113431159238075</v>
+      </c>
+      <c r="G81">
+        <v>-0.0262508236601493</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.02621243192933728</v>
+        <v>0.1495037708239329</v>
       </c>
       <c r="C82">
-        <v>-0.009373705947493321</v>
+        <v>-0.09099911852373586</v>
       </c>
       <c r="D82">
-        <v>-0.02273705613697511</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.01425694136368376</v>
+      </c>
+      <c r="E82">
+        <v>0.1363806869896698</v>
+      </c>
+      <c r="F82">
+        <v>0.04339033841272249</v>
+      </c>
+      <c r="G82">
+        <v>-0.05427464814806425</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01691829126149239</v>
+        <v>0.03322156327900867</v>
       </c>
       <c r="C83">
-        <v>-0.002457952817689698</v>
+        <v>-0.03242704616924303</v>
       </c>
       <c r="D83">
-        <v>-0.02154810753955814</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.007194877816504938</v>
+      </c>
+      <c r="E83">
+        <v>-0.0365217538777787</v>
+      </c>
+      <c r="F83">
+        <v>-0.03088639798055628</v>
+      </c>
+      <c r="G83">
+        <v>-0.05610101075176965</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.188879556484884</v>
+        <v>0.2078873138389226</v>
       </c>
       <c r="C85">
-        <v>-0.07428219254337229</v>
+        <v>-0.1461600969605436</v>
       </c>
       <c r="D85">
-        <v>-0.1960796749284549</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01796330125193724</v>
+      </c>
+      <c r="E85">
+        <v>0.1136605346532686</v>
+      </c>
+      <c r="F85">
+        <v>0.07662758923380399</v>
+      </c>
+      <c r="G85">
+        <v>0.0395387686886503</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.007962234322599479</v>
+        <v>0.01283515248656049</v>
       </c>
       <c r="C86">
-        <v>-0.0004107728874026288</v>
+        <v>-0.02716131696402934</v>
       </c>
       <c r="D86">
-        <v>-0.02801930354136663</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01308755568499431</v>
+      </c>
+      <c r="E86">
+        <v>-0.06748073905960705</v>
+      </c>
+      <c r="F86">
+        <v>-0.02264079331805915</v>
+      </c>
+      <c r="G86">
+        <v>-0.1813476446001547</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.001715421434052584</v>
+        <v>0.02074871345362062</v>
       </c>
       <c r="C87">
-        <v>0.003066066190227032</v>
+        <v>-0.0180847034180216</v>
       </c>
       <c r="D87">
-        <v>-0.03264291118822427</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01336605443479913</v>
+      </c>
+      <c r="E87">
+        <v>-0.09954076146702853</v>
+      </c>
+      <c r="F87">
+        <v>0.01951987979903064</v>
+      </c>
+      <c r="G87">
+        <v>-0.1174702929887372</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.06684015547863539</v>
+        <v>0.090356656461554</v>
       </c>
       <c r="C88">
-        <v>0.0004051831806728665</v>
+        <v>-0.07149191534901998</v>
       </c>
       <c r="D88">
-        <v>-0.06174399551820372</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02250039362150805</v>
+      </c>
+      <c r="E88">
+        <v>0.00195075277954819</v>
+      </c>
+      <c r="F88">
+        <v>0.01966734205154234</v>
+      </c>
+      <c r="G88">
+        <v>-0.102317665549192</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.2948182369455338</v>
+        <v>0.2349871976658544</v>
       </c>
       <c r="C89">
-        <v>0.01700415798680469</v>
+        <v>0.365205581322711</v>
       </c>
       <c r="D89">
-        <v>0.3213364407030425</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0006257974956419844</v>
+      </c>
+      <c r="E89">
+        <v>0.02202187006729095</v>
+      </c>
+      <c r="F89">
+        <v>0.01825329132282661</v>
+      </c>
+      <c r="G89">
+        <v>-0.08151991697227164</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2596948610647868</v>
+        <v>0.2134440648480689</v>
       </c>
       <c r="C90">
-        <v>0.01201107070623763</v>
+        <v>0.3148558751372798</v>
       </c>
       <c r="D90">
-        <v>0.290887711467327</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004546553160649205</v>
+      </c>
+      <c r="E90">
+        <v>0.008761396614990388</v>
+      </c>
+      <c r="F90">
+        <v>0.04967063688838152</v>
+      </c>
+      <c r="G90">
+        <v>-0.05140639200243732</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1515376549868886</v>
+        <v>0.1844508523738654</v>
       </c>
       <c r="C91">
-        <v>-0.06385654073217491</v>
+        <v>-0.1370118162544025</v>
       </c>
       <c r="D91">
-        <v>-0.1191401589145544</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02334645677657628</v>
+      </c>
+      <c r="E91">
+        <v>0.08366455073408718</v>
+      </c>
+      <c r="F91">
+        <v>0.1103638975564073</v>
+      </c>
+      <c r="G91">
+        <v>-0.03623523070807697</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2382360937892128</v>
+        <v>0.2002843011029826</v>
       </c>
       <c r="C92">
-        <v>-0.03207176723686162</v>
+        <v>0.2568168517981702</v>
       </c>
       <c r="D92">
-        <v>0.2214669012016672</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03823523308093891</v>
+      </c>
+      <c r="E92">
+        <v>-0.0222123467994029</v>
+      </c>
+      <c r="F92">
+        <v>0.0558097677222737</v>
+      </c>
+      <c r="G92">
+        <v>-0.09100658378212897</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.275876981172817</v>
+        <v>0.2358234541142095</v>
       </c>
       <c r="C93">
-        <v>-0.002175779939906293</v>
+        <v>0.3074691828890994</v>
       </c>
       <c r="D93">
-        <v>0.2621492393931409</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.0104576087978866</v>
+      </c>
+      <c r="E93">
+        <v>-0.005779119402420722</v>
+      </c>
+      <c r="F93">
+        <v>0.03767155672303216</v>
+      </c>
+      <c r="G93">
+        <v>-0.06180910750523669</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2107143505626098</v>
+        <v>0.3212696254152599</v>
       </c>
       <c r="C94">
-        <v>-0.0661037049384392</v>
+        <v>-0.1934271360451109</v>
       </c>
       <c r="D94">
-        <v>-0.1814837438240325</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.02651991629999111</v>
+      </c>
+      <c r="E94">
+        <v>0.3523280645462533</v>
+      </c>
+      <c r="F94">
+        <v>0.4240184598992977</v>
+      </c>
+      <c r="G94">
+        <v>0.3818779251443675</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.04827764059504041</v>
+        <v>0.09241544151062854</v>
       </c>
       <c r="C95">
-        <v>-0.04044371557800572</v>
+        <v>-0.08141826867358472</v>
       </c>
       <c r="D95">
-        <v>-0.1423967432446646</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.008987164837816135</v>
+      </c>
+      <c r="E95">
+        <v>-0.1098767313182104</v>
+      </c>
+      <c r="F95">
+        <v>-0.1575569743473088</v>
+      </c>
+      <c r="G95">
+        <v>-0.06721980795622284</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1959356141788903</v>
+        <v>0.1903338701366907</v>
       </c>
       <c r="C98">
-        <v>-0.06800899471615625</v>
+        <v>-0.05077012212570961</v>
       </c>
       <c r="D98">
-        <v>-0.09681713697537332</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01009532555421246</v>
+      </c>
+      <c r="E98">
+        <v>-0.128793038141431</v>
+      </c>
+      <c r="F98">
+        <v>-0.2082919903253526</v>
+      </c>
+      <c r="G98">
+        <v>0.04606750246328027</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.004901460029474829</v>
+        <v>0.008095653335094153</v>
       </c>
       <c r="C101">
-        <v>0.002883266690986906</v>
+        <v>-0.02321159684731372</v>
       </c>
       <c r="D101">
-        <v>-0.0187139099161462</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.009854527960905952</v>
+      </c>
+      <c r="E101">
+        <v>-0.007904814512423534</v>
+      </c>
+      <c r="F101">
+        <v>0.01259689431576643</v>
+      </c>
+      <c r="G101">
+        <v>-0.1045091727077693</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.09706446672512611</v>
+        <v>0.1169481723171574</v>
       </c>
       <c r="C102">
-        <v>-0.02849886291853905</v>
+        <v>-0.08617596262610709</v>
       </c>
       <c r="D102">
-        <v>-0.09417500879901189</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0002997188204874598</v>
+      </c>
+      <c r="E102">
+        <v>0.04035589803555745</v>
+      </c>
+      <c r="F102">
+        <v>0.02101064150645564</v>
+      </c>
+      <c r="G102">
+        <v>-0.02012392026512543</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.1708035992385713</v>
+        <v>0.02113783443338047</v>
       </c>
       <c r="C104">
-        <v>0.9639932737975719</v>
+        <v>0.0289838519700479</v>
       </c>
       <c r="D104">
-        <v>-0.1552807351016795</v>
+        <v>0.9869025558673333</v>
+      </c>
+      <c r="E104">
+        <v>0.07448416146808161</v>
+      </c>
+      <c r="F104">
+        <v>0.02531135707670037</v>
+      </c>
+      <c r="G104">
+        <v>0.03895153479433965</v>
       </c>
     </row>
   </sheetData>
